--- a/type_hint/cau_3.xlsx
+++ b/type_hint/cau_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\khoi\chuyendephattrienweb1_2024\type_hint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883F744-253C-4E9C-B8DD-04DF0ACF7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95A6AB-840A-41BC-9D89-DB675184C344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="B6:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="b">
         <v>1</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
